--- a/data/excelcases.xlsx
+++ b/data/excelcases.xlsx
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK","data":{"id":1000332301,"reg_name":"yh","mobile_phone":"18685132769"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code":0,"msg":"OK","data":{"id":1000332319,"reg_name":"yh","mobile_phone":"18680742193"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
     </row>
